--- a/data/trans_orig/P6705-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>41149</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30306</v>
+        <v>28187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54979</v>
+        <v>53489</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1358933733368893</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1000851085333816</v>
+        <v>0.09308589240298316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1815673541190973</v>
+        <v>0.1766474619225711</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -764,19 +764,19 @@
         <v>23587</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15679</v>
+        <v>15036</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37122</v>
+        <v>35195</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1213255049238725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08064652136742646</v>
+        <v>0.07733930330309562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1909419441065109</v>
+        <v>0.1810328817981688</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -785,19 +785,19 @@
         <v>64736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49894</v>
+        <v>50494</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82123</v>
+        <v>81635</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1301972710596772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1003465937860368</v>
+        <v>0.1015540875563385</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1651645332072338</v>
+        <v>0.1641844128590201</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>36910</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26477</v>
+        <v>26579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48505</v>
+        <v>48665</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1218934177704136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08743814416584873</v>
+        <v>0.08777788283929674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1601866656629304</v>
+        <v>0.1607141102640682</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -835,19 +835,19 @@
         <v>28449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19221</v>
+        <v>19920</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38590</v>
+        <v>40183</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1463340728967374</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09886795183014571</v>
+        <v>0.1024630766326259</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1984947853749593</v>
+        <v>0.2066894972395649</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -856,19 +856,19 @@
         <v>65359</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50854</v>
+        <v>51746</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81826</v>
+        <v>80790</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1314498241968484</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1022763929146073</v>
+        <v>0.1040705437272672</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1645681027149758</v>
+        <v>0.1624852452808568</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>96807</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79190</v>
+        <v>80160</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>115709</v>
+        <v>113046</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3197036170243336</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2615244607256496</v>
+        <v>0.2647256371034531</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3821269624776402</v>
+        <v>0.3733318500718284</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -906,19 +906,19 @@
         <v>50154</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38693</v>
+        <v>37624</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>64522</v>
+        <v>62998</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2579733370803219</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1990248977078573</v>
+        <v>0.1935228736128729</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3318814696484982</v>
+        <v>0.3240423068144881</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>132</v>
@@ -927,19 +927,19 @@
         <v>146961</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>124949</v>
+        <v>125578</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>170743</v>
+        <v>168697</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2955667990497942</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2512967866949348</v>
+        <v>0.2525619746886301</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3433979405343053</v>
+        <v>0.3392816179099613</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>69829</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55834</v>
+        <v>57107</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86220</v>
+        <v>86600</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.230608723802906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1843897322810936</v>
+        <v>0.1885937750939882</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2847395088399857</v>
+        <v>0.2859939496656239</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -977,19 +977,19 @@
         <v>39713</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28730</v>
+        <v>29057</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52032</v>
+        <v>52631</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2042712307167279</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1477777876941894</v>
+        <v>0.1494586427292002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2676373280816441</v>
+        <v>0.270716219688056</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -998,19 +998,19 @@
         <v>109542</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89611</v>
+        <v>89930</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127914</v>
+        <v>130389</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2203106451759608</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1802245114026652</v>
+        <v>0.1808666811625208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2572594015477511</v>
+        <v>0.2622366937250198</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>58108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45084</v>
+        <v>45056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>72872</v>
+        <v>72354</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1919008680654576</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1488901460168056</v>
+        <v>0.14879724854457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2406579306381504</v>
+        <v>0.2389469391420364</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -1048,19 +1048,19 @@
         <v>52510</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40838</v>
+        <v>41975</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67635</v>
+        <v>66870</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2700958543823402</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2100562909113144</v>
+        <v>0.2159027247434196</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3478926081843589</v>
+        <v>0.3439543559528437</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>104</v>
@@ -1069,19 +1069,19 @@
         <v>110619</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>92105</v>
+        <v>92790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>131713</v>
+        <v>130691</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2224754605177195</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1852410526115484</v>
+        <v>0.1866182235282476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2649000476293745</v>
+        <v>0.2628448196166933</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>26302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16069</v>
+        <v>17481</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38015</v>
+        <v>39463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1021316920329681</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06239637800117342</v>
+        <v>0.06787914257526884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1476132578309905</v>
+        <v>0.1532342005910289</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1194,19 +1194,19 @@
         <v>34094</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24368</v>
+        <v>24121</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46560</v>
+        <v>45976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2041141838455443</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1458866858900661</v>
+        <v>0.1444052792102122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2787453293404157</v>
+        <v>0.2752474224283291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -1215,19 +1215,19 @@
         <v>60396</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46083</v>
+        <v>45296</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76396</v>
+        <v>75858</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1422541794975155</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.108541670742182</v>
+        <v>0.1066867115615537</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1799375689002487</v>
+        <v>0.178671991148602</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>30961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21010</v>
+        <v>21123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43025</v>
+        <v>44614</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1202217233324925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08158321583398058</v>
+        <v>0.08202170935386759</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1670677679337356</v>
+        <v>0.1732354320523107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -1265,19 +1265,19 @@
         <v>27845</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18494</v>
+        <v>19039</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38584</v>
+        <v>39840</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1666989490756852</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1107164188087906</v>
+        <v>0.113984405411148</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2309922598086055</v>
+        <v>0.238511016237044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -1286,19 +1286,19 @@
         <v>58806</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45768</v>
+        <v>44882</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>75930</v>
+        <v>74479</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1385070375479491</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1077998045957342</v>
+        <v>0.1057113642984417</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1788404241997973</v>
+        <v>0.1754235790569669</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>81573</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>66674</v>
+        <v>66803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>98661</v>
+        <v>100679</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3167480863629107</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2588942951340718</v>
+        <v>0.2593964713253817</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3831035395799584</v>
+        <v>0.3909391062686384</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -1336,19 +1336,19 @@
         <v>52506</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40341</v>
+        <v>40715</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65213</v>
+        <v>65581</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3143440623208542</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2415101517255405</v>
+        <v>0.2437493850026034</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.390414247089784</v>
+        <v>0.3926173724716568</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>124</v>
@@ -1357,19 +1357,19 @@
         <v>134079</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>114216</v>
+        <v>114117</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154007</v>
+        <v>154888</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3158022826001516</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2690181617707532</v>
+        <v>0.2687833914620764</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3627380703184366</v>
+        <v>0.3648134035512499</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>69338</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55016</v>
+        <v>54307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85091</v>
+        <v>84640</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.269241628045458</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2136265035824698</v>
+        <v>0.2108741774158244</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3304087933239546</v>
+        <v>0.3286582042689109</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1407,19 +1407,19 @@
         <v>29534</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20242</v>
+        <v>19941</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41545</v>
+        <v>41322</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1768113967552034</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1211861189675069</v>
+        <v>0.1193795878232486</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2487225602578392</v>
+        <v>0.2473843734682692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -1428,19 +1428,19 @@
         <v>98872</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83518</v>
+        <v>80851</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>119285</v>
+        <v>119042</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2328772410769183</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1967122946353047</v>
+        <v>0.1904309065113201</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2809572098231607</v>
+        <v>0.2803856259997646</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>49358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37479</v>
+        <v>36852</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63870</v>
+        <v>63393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1916568702261706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1455306687171521</v>
+        <v>0.1430979360871593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2480061589877532</v>
+        <v>0.246156635661478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1478,19 +1478,19 @@
         <v>23056</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14556</v>
+        <v>14344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34209</v>
+        <v>33798</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1380314080027129</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08714421368704932</v>
+        <v>0.08587641215569319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2047987205622475</v>
+        <v>0.2023400534306762</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -1499,19 +1499,19 @@
         <v>72414</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57626</v>
+        <v>57378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>89302</v>
+        <v>90736</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1705592592774655</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1357278031888372</v>
+        <v>0.1351439319730455</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2103358691760285</v>
+        <v>0.2137149230913968</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>77560</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64182</v>
+        <v>61879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92983</v>
+        <v>93600</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2773482104067991</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.229511819030975</v>
+        <v>0.2212756591169862</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3325029134159698</v>
+        <v>0.3347076898534727</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1624,19 +1624,19 @@
         <v>25421</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18128</v>
+        <v>17379</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35586</v>
+        <v>34666</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2294517161548263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1636275579017704</v>
+        <v>0.1568676410717149</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3212006857859833</v>
+        <v>0.3128973194387135</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -1645,19 +1645,19 @@
         <v>102980</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85149</v>
+        <v>85954</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122615</v>
+        <v>121000</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2637572327949123</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2180867718026903</v>
+        <v>0.2201495692768856</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3140453595658976</v>
+        <v>0.3099101721569213</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>45849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34336</v>
+        <v>34567</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59782</v>
+        <v>58780</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1639518519650581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1227821480767948</v>
+        <v>0.1236089130879897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2137761640164947</v>
+        <v>0.210193986583057</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1695,19 +1695,19 @@
         <v>16557</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9403</v>
+        <v>10088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25222</v>
+        <v>25996</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1494441119713135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08487708865737043</v>
+        <v>0.09105650338064109</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2276572331428849</v>
+        <v>0.2346479733016598</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>62</v>
@@ -1716,19 +1716,19 @@
         <v>62405</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49539</v>
+        <v>49418</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78594</v>
+        <v>77848</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1598351755248834</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1268824044449342</v>
+        <v>0.1265709263279304</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2012970807326718</v>
+        <v>0.1993885928271392</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>73466</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58771</v>
+        <v>58706</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87539</v>
+        <v>88771</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2627100498417079</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2101619762842378</v>
+        <v>0.2099301078676987</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3130354338804017</v>
+        <v>0.317439161124781</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -1766,19 +1766,19 @@
         <v>32726</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24087</v>
+        <v>23839</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43663</v>
+        <v>42875</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2953939960415999</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2174109979590055</v>
+        <v>0.215173239058082</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3941127651323322</v>
+        <v>0.3869925927678612</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>103</v>
@@ -1787,19 +1787,19 @@
         <v>106192</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>87855</v>
+        <v>90487</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>123828</v>
+        <v>126255</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2719843566152679</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2250186730245602</v>
+        <v>0.2317593868672456</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3171542417071578</v>
+        <v>0.3233694922557045</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>46381</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35093</v>
+        <v>34302</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59985</v>
+        <v>61052</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1658543717527677</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1254912292674589</v>
+        <v>0.122662114512405</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2145012900178563</v>
+        <v>0.2183178474089286</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1837,19 +1837,19 @@
         <v>14220</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7887</v>
+        <v>7520</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22975</v>
+        <v>22452</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1283532659072348</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07119236242253606</v>
+        <v>0.06787280343778593</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.207377888936571</v>
+        <v>0.2026533555734302</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1858,19 +1858,19 @@
         <v>60601</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47624</v>
+        <v>47473</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77457</v>
+        <v>75033</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1552131609934511</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1219751920515863</v>
+        <v>0.1215886055047067</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.198385237710916</v>
+        <v>0.1921766270942877</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>36392</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25459</v>
+        <v>27026</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48140</v>
+        <v>49756</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1301355160336672</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09103980118725739</v>
+        <v>0.09664370276824615</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1721452388204926</v>
+        <v>0.1779225784387806</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1908,19 +1908,19 @@
         <v>21865</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13926</v>
+        <v>14822</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31116</v>
+        <v>32264</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1973569099250254</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.125697877490749</v>
+        <v>0.1337845702707829</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2808554554360194</v>
+        <v>0.2912202552726057</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>56</v>
@@ -1929,19 +1929,19 @@
         <v>58257</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44646</v>
+        <v>44988</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75414</v>
+        <v>73724</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1492100740714854</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1143491305915804</v>
+        <v>0.1152256103267972</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1931528254684962</v>
+        <v>0.1888245758507155</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>91723</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73943</v>
+        <v>75431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110462</v>
+        <v>111284</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2194109657394333</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1768795916925117</v>
+        <v>0.1804386932866737</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2642344117803742</v>
+        <v>0.2662019495173428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2054,19 +2054,19 @@
         <v>68071</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53176</v>
+        <v>54384</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84589</v>
+        <v>84660</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2285437503251251</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1785339335227047</v>
+        <v>0.182590074334962</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2840037086873941</v>
+        <v>0.2842420701365166</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>149</v>
@@ -2075,19 +2075,19 @@
         <v>159794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136931</v>
+        <v>139311</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>184388</v>
+        <v>182261</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2232106617484952</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1912741372769943</v>
+        <v>0.1945982383116614</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2575652316930435</v>
+        <v>0.254593478913036</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>70594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>54385</v>
+        <v>54641</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>86643</v>
+        <v>88036</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1688664200928106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1300940889204774</v>
+        <v>0.1307063522252993</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2072576135471332</v>
+        <v>0.2105904297849603</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>50</v>
@@ -2125,19 +2125,19 @@
         <v>53189</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>39681</v>
+        <v>39936</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>67999</v>
+        <v>67815</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1785800514091821</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1332278864224927</v>
+        <v>0.1340819611505382</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2283009840018569</v>
+        <v>0.2276862093187569</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>116</v>
@@ -2146,19 +2146,19 @@
         <v>123783</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>102877</v>
+        <v>103915</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>145617</v>
+        <v>147281</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1729077774466389</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1437047656861252</v>
+        <v>0.1451543692822292</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2034064117927739</v>
+        <v>0.2057314368832465</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>117792</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>98896</v>
+        <v>99662</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>136209</v>
+        <v>140299</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2817688498975083</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2365674214161943</v>
+        <v>0.2384009706237445</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.325825260284714</v>
+        <v>0.3356084607134986</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>65</v>
@@ -2196,19 +2196,19 @@
         <v>69097</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55840</v>
+        <v>56490</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85477</v>
+        <v>86333</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2319890879331967</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1874808093419531</v>
+        <v>0.1896616943415362</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2869823020801899</v>
+        <v>0.2898585360053576</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>177</v>
@@ -2217,19 +2217,19 @@
         <v>186889</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>164275</v>
+        <v>163354</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>210708</v>
+        <v>210195</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2610579745786946</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2294698695062643</v>
+        <v>0.2281825951190053</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.294330572550266</v>
+        <v>0.2936129641819121</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>67014</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52611</v>
+        <v>51744</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83148</v>
+        <v>84141</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1603026267558551</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1258494662585005</v>
+        <v>0.1237759823326395</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1988972887689685</v>
+        <v>0.2012721335326977</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -2267,19 +2267,19 @@
         <v>60451</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47111</v>
+        <v>47989</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76155</v>
+        <v>76125</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2029605176337794</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1581710462780445</v>
+        <v>0.1611203634315017</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2556862397493512</v>
+        <v>0.2555850374076714</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -2288,19 +2288,19 @@
         <v>127465</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>106036</v>
+        <v>107567</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>149311</v>
+        <v>149159</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1780504468432562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1481178652534375</v>
+        <v>0.1502566323911289</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2085676087546886</v>
+        <v>0.2083548808132808</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>70922</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>56588</v>
+        <v>54073</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>90142</v>
+        <v>88183</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1696511375143926</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1353633589035525</v>
+        <v>0.1293475908444129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2156275312701484</v>
+        <v>0.2109409053153764</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -2338,19 +2338,19 @@
         <v>47038</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35715</v>
+        <v>34281</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60711</v>
+        <v>60447</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1579265926987167</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1199117073327548</v>
+        <v>0.1150977435009232</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2038327608940828</v>
+        <v>0.202946362812555</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>112</v>
@@ -2359,19 +2359,19 @@
         <v>117959</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>101243</v>
+        <v>98811</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>139465</v>
+        <v>139446</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1647731393829151</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1414229097321777</v>
+        <v>0.138025506380577</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1948137406147177</v>
+        <v>0.1947864106060975</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>39761</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29568</v>
+        <v>29039</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51600</v>
+        <v>52009</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2616946520444761</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1946115540388235</v>
+        <v>0.1911270629164579</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3396169988349164</v>
+        <v>0.3423141146942326</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>51</v>
@@ -2484,19 +2484,19 @@
         <v>56891</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44528</v>
+        <v>44005</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>69236</v>
+        <v>69239</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3273827974398135</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.256238307478614</v>
+        <v>0.2532311611201007</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3984243404224166</v>
+        <v>0.3984398230371486</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>89</v>
@@ -2505,19 +2505,19 @@
         <v>96652</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>79951</v>
+        <v>80753</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>114749</v>
+        <v>111996</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2967410111925822</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2454656330616842</v>
+        <v>0.2479305940738794</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3523044827429299</v>
+        <v>0.3438531493200614</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>31272</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22050</v>
+        <v>21654</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41669</v>
+        <v>41994</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2058265152775683</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1451274071017755</v>
+        <v>0.1425247592631642</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.274257635270185</v>
+        <v>0.2763938696053908</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -2555,19 +2555,19 @@
         <v>28178</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19734</v>
+        <v>19474</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39110</v>
+        <v>38549</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1621513375609318</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.113561820903967</v>
+        <v>0.1120631827748608</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2250614397345796</v>
+        <v>0.221830258701218</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>57</v>
@@ -2576,19 +2576,19 @@
         <v>59450</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>46208</v>
+        <v>46385</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>74303</v>
+        <v>75306</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1825246553315688</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1418670430771956</v>
+        <v>0.1424108293119724</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2281252697414291</v>
+        <v>0.2312060550980917</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>39294</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28352</v>
+        <v>28854</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>51594</v>
+        <v>50744</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.258624886131089</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1866073849683029</v>
+        <v>0.1899093010515097</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3395778702536009</v>
+        <v>0.333987642792051</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>33</v>
@@ -2626,19 +2626,19 @@
         <v>37217</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26796</v>
+        <v>27236</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>48839</v>
+        <v>49521</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2141674855772316</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1542012454732773</v>
+        <v>0.1567322198591829</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2810489779189213</v>
+        <v>0.2849727818059053</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>70</v>
@@ -2647,19 +2647,19 @@
         <v>76511</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>62052</v>
+        <v>61807</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>92613</v>
+        <v>94221</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2349056896577434</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1905130254650147</v>
+        <v>0.1897603725389047</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2843430240997323</v>
+        <v>0.2892784149877133</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>24207</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16149</v>
+        <v>15789</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35678</v>
+        <v>34907</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1593222502911137</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1062919171797517</v>
+        <v>0.1039201302399021</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2348232578491252</v>
+        <v>0.2297519008194212</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2697,19 +2697,19 @@
         <v>25824</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17010</v>
+        <v>17721</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36092</v>
+        <v>37463</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1486039014153772</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09788554132040854</v>
+        <v>0.1019770820518388</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2076917417731731</v>
+        <v>0.2155846257774275</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>46</v>
@@ -2718,19 +2718,19 @@
         <v>50030</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38370</v>
+        <v>38807</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63997</v>
+        <v>63957</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1536037282973352</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1178030289181548</v>
+        <v>0.1191473293225786</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1964837246486264</v>
+        <v>0.1963610605283385</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>17401</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9710</v>
+        <v>10526</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27005</v>
+        <v>26363</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1145316962557529</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0639112454861134</v>
+        <v>0.06927690608401479</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1777432891902253</v>
+        <v>0.1735181237287351</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -2768,19 +2768,19 @@
         <v>25666</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17602</v>
+        <v>16672</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37317</v>
+        <v>36742</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1476944780066459</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1012902781213124</v>
+        <v>0.09593950222039559</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.214743730385225</v>
+        <v>0.2114359809387505</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -2789,19 +2789,19 @@
         <v>43067</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>32073</v>
+        <v>30376</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>57580</v>
+        <v>55984</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1322249155207704</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09847198555997456</v>
+        <v>0.09326213971232772</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1767818875401351</v>
+        <v>0.171881535537056</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>276495</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>244606</v>
+        <v>245949</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>308871</v>
+        <v>305941</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1961010208820606</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1734843918783042</v>
+        <v>0.1744368165508461</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.219063972770912</v>
+        <v>0.2169855510764916</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>190</v>
@@ -2914,19 +2914,19 @@
         <v>208064</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>182461</v>
+        <v>184101</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>236863</v>
+        <v>238121</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2204398076543127</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1933134663888933</v>
+        <v>0.1950518480030874</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2509516952175451</v>
+        <v>0.2522841503532542</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>449</v>
@@ -2935,19 +2935,19 @@
         <v>484559</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>443954</v>
+        <v>447365</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>529947</v>
+        <v>525799</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2058606434059961</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1886099857857669</v>
+        <v>0.1900589975682599</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2251434956705248</v>
+        <v>0.2233812442609081</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>215585</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>188928</v>
+        <v>186583</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>246001</v>
+        <v>245443</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1529015018498053</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1339951427391859</v>
+        <v>0.1323321361888522</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1744738436266584</v>
+        <v>0.1740777497969824</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>146</v>
@@ -2985,19 +2985,19 @@
         <v>154218</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>129353</v>
+        <v>131381</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>177505</v>
+        <v>177962</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.163390845408196</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1370465076977694</v>
+        <v>0.139195724455018</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1880630535865901</v>
+        <v>0.18854746599566</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>353</v>
@@ -3006,19 +3006,19 @@
         <v>369803</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>333681</v>
+        <v>333523</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>407462</v>
+        <v>408252</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1571076290742929</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1417612692445028</v>
+        <v>0.1416942771213269</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1731065174269587</v>
+        <v>0.1734423663739009</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>408932</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>373390</v>
+        <v>374674</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>450019</v>
+        <v>447857</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2900307023689535</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2648232866992892</v>
+        <v>0.2657339201280804</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3191716454566498</v>
+        <v>0.3176382184433587</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>224</v>
@@ -3056,19 +3056,19 @@
         <v>241700</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>213387</v>
+        <v>213859</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>268880</v>
+        <v>270484</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2560769113828713</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2260789014358154</v>
+        <v>0.2265795885306295</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2848728373364358</v>
+        <v>0.2865725214359091</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>606</v>
@@ -3077,19 +3077,19 @@
         <v>650632</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>598873</v>
+        <v>605485</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>691688</v>
+        <v>696998</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.276415554400339</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2544261837603954</v>
+        <v>0.2572350152672445</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2938574438405032</v>
+        <v>0.2961136842509737</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>276768</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>245109</v>
+        <v>246936</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>311032</v>
+        <v>315077</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1962949002491045</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1738409405232672</v>
+        <v>0.1751371893146262</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2205963672221125</v>
+        <v>0.2234652089398518</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>154</v>
@@ -3127,19 +3127,19 @@
         <v>169742</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>145844</v>
+        <v>145331</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>199235</v>
+        <v>196995</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1798379055202459</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.154518661874893</v>
+        <v>0.1539748867195928</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2110859198669851</v>
+        <v>0.2087125695598117</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>410</v>
@@ -3148,19 +3148,19 @@
         <v>446510</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>409081</v>
+        <v>406878</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>492724</v>
+        <v>486054</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1896958015374477</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1737947147253486</v>
+        <v>0.1728584401366932</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2093293556938581</v>
+        <v>0.2064960291773962</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>232181</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>205078</v>
+        <v>204046</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>262645</v>
+        <v>262018</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1646718746500763</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1454498239288922</v>
+        <v>0.1447172968201867</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1862784917986161</v>
+        <v>0.1858337396429844</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>157</v>
@@ -3198,19 +3198,19 @@
         <v>170135</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>148173</v>
+        <v>147915</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>195796</v>
+        <v>195775</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1802545300343741</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1569861365378047</v>
+        <v>0.1567126381135409</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2074419111539395</v>
+        <v>0.207419589960396</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>376</v>
@@ -3219,19 +3219,19 @@
         <v>402316</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>367083</v>
+        <v>366015</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>439441</v>
+        <v>441290</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1709203715819242</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1559520374261303</v>
+        <v>0.1554984130301772</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1866926751750022</v>
+        <v>0.1874783266031372</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>53745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41326</v>
+        <v>40968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68847</v>
+        <v>67725</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1946917932821767</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1497048231462995</v>
+        <v>0.1484066455564772</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2493990436065373</v>
+        <v>0.2453344123859689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -3585,19 +3585,19 @@
         <v>37023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26759</v>
+        <v>26031</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49051</v>
+        <v>49299</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1728622101564811</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1249416309155412</v>
+        <v>0.1215404964308984</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2290241240862551</v>
+        <v>0.2301800400689085</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -3606,19 +3606,19 @@
         <v>90768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74613</v>
+        <v>73883</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109674</v>
+        <v>109316</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1851547065128149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.152201932103139</v>
+        <v>0.1507117676878964</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2237210267492455</v>
+        <v>0.2229897617494163</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>52137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39173</v>
+        <v>40659</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66156</v>
+        <v>66955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.188867027694014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1419022272239056</v>
+        <v>0.1472882860423946</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2396513894823379</v>
+        <v>0.242543559284708</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -3656,19 +3656,19 @@
         <v>31231</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21984</v>
+        <v>22845</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42368</v>
+        <v>42147</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1458220439792484</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1026440918871163</v>
+        <v>0.106666297222932</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1978214721882223</v>
+        <v>0.1967895127192413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -3677,19 +3677,19 @@
         <v>83369</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67606</v>
+        <v>67741</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102663</v>
+        <v>102300</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1700611832438624</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1379074054019904</v>
+        <v>0.1381835424653804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.209418383650731</v>
+        <v>0.2086789447474911</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>82804</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66889</v>
+        <v>68038</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98607</v>
+        <v>99871</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2999555815439755</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2423050333309336</v>
+        <v>0.246468566412288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3572015179809238</v>
+        <v>0.3617834556716515</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -3727,19 +3727,19 @@
         <v>61554</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49552</v>
+        <v>48087</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>77486</v>
+        <v>74900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2874023116933858</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2313627536406833</v>
+        <v>0.2245233361885892</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.361789084115647</v>
+        <v>0.3497155123977453</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>134</v>
@@ -3748,19 +3748,19 @@
         <v>144358</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>124956</v>
+        <v>123015</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>166430</v>
+        <v>167881</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2944712063676413</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2548947247348309</v>
+        <v>0.2509351773160763</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3394952730983489</v>
+        <v>0.3424561501238661</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>46366</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35364</v>
+        <v>34885</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61011</v>
+        <v>60248</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1679614412519491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1281057323851031</v>
+        <v>0.1263713327400574</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2210115851526368</v>
+        <v>0.2182472581242358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -3798,19 +3798,19 @@
         <v>48796</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37796</v>
+        <v>37403</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61995</v>
+        <v>62893</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2278339859963638</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1764719951632392</v>
+        <v>0.1746393352210947</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2894615597172501</v>
+        <v>0.2936523777373307</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -3819,19 +3819,19 @@
         <v>95162</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78703</v>
+        <v>79974</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115521</v>
+        <v>114595</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1941190481582325</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1605436961158866</v>
+        <v>0.1631361816507126</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.235647522865343</v>
+        <v>0.2337595385846636</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>41001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30392</v>
+        <v>30183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56662</v>
+        <v>54089</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1485241562278846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1100933029521457</v>
+        <v>0.1093358902577592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2052561464823429</v>
+        <v>0.1959377953643069</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -3869,19 +3869,19 @@
         <v>35570</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25419</v>
+        <v>25018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47594</v>
+        <v>48068</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1660794481745209</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1186828373694647</v>
+        <v>0.1168092802869521</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2222223406126419</v>
+        <v>0.224434032571841</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>70</v>
@@ -3890,19 +3890,19 @@
         <v>76570</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>60058</v>
+        <v>59849</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>95424</v>
+        <v>94865</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.156193855717449</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1225097067490947</v>
+        <v>0.1220842221685418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1946535505808963</v>
+        <v>0.1935132405408526</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>56831</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43057</v>
+        <v>43979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69595</v>
+        <v>71023</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2336430597935286</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1770175730408065</v>
+        <v>0.1808077567487296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2861182239859646</v>
+        <v>0.2919900313715997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -4015,19 +4015,19 @@
         <v>46583</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35130</v>
+        <v>35113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59393</v>
+        <v>58885</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2462414051487131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.185698507078228</v>
+        <v>0.1856111020844671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3139555311360806</v>
+        <v>0.3112721982305749</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -4036,19 +4036,19 @@
         <v>103414</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87196</v>
+        <v>87466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120733</v>
+        <v>122080</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2391547024526067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2016503582547603</v>
+        <v>0.2022749101973432</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2792076520253486</v>
+        <v>0.2823230199505927</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>49910</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37863</v>
+        <v>38198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64931</v>
+        <v>64954</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2051925708404851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.155664401705881</v>
+        <v>0.1570401172459508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2669458721492942</v>
+        <v>0.2670387443938033</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -4086,19 +4086,19 @@
         <v>42253</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30281</v>
+        <v>30304</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54157</v>
+        <v>54258</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.223352720122492</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.160069024989063</v>
+        <v>0.160191677820803</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2862772771371375</v>
+        <v>0.28681221040586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>83</v>
@@ -4107,19 +4107,19 @@
         <v>92163</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>75528</v>
+        <v>74729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>110726</v>
+        <v>112216</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2131374438103903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1746669608991678</v>
+        <v>0.1728190603864256</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2560658663806597</v>
+        <v>0.2595116807205765</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>63293</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>50259</v>
+        <v>50278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>78388</v>
+        <v>77508</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2602128875124404</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2066254431946883</v>
+        <v>0.2067035004553728</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3222714710495018</v>
+        <v>0.3186524465692755</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -4157,19 +4157,19 @@
         <v>53550</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>41886</v>
+        <v>42054</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>67234</v>
+        <v>66471</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2830672694252584</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2214108714217916</v>
+        <v>0.222300101792884</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3554023509645188</v>
+        <v>0.3513723993282529</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>108</v>
@@ -4178,19 +4178,19 @@
         <v>116843</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>98566</v>
+        <v>98861</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>135092</v>
+        <v>137500</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2702114375399417</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2279451374134706</v>
+        <v>0.228625191578859</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3124147708487924</v>
+        <v>0.3179823046481908</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>42641</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31909</v>
+        <v>31864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55586</v>
+        <v>55676</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1753078133834455</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1311834385299402</v>
+        <v>0.1310011416591171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2285273351664886</v>
+        <v>0.2288945356770443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -4228,19 +4228,19 @@
         <v>28089</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18720</v>
+        <v>19691</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39360</v>
+        <v>39814</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1484827661039086</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09895460319693139</v>
+        <v>0.1040870209818255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2080621597014917</v>
+        <v>0.2104599979702757</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -4249,19 +4249,19 @@
         <v>70731</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56599</v>
+        <v>56121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87538</v>
+        <v>88049</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1635721393128154</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1308921719898252</v>
+        <v>0.1297857422914004</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2024397098805931</v>
+        <v>0.2036232931931002</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>30561</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20752</v>
+        <v>21343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42717</v>
+        <v>42324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1256436684701005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08531640628484131</v>
+        <v>0.08774450059820872</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1756172954336111</v>
+        <v>0.174004656514462</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -4299,19 +4299,19 @@
         <v>18701</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11633</v>
+        <v>11757</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28167</v>
+        <v>28592</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09885583919962788</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06149211268265755</v>
+        <v>0.06215072601324184</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1488936073141891</v>
+        <v>0.151138310330949</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -4320,19 +4320,19 @@
         <v>49262</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37127</v>
+        <v>37484</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>63911</v>
+        <v>64039</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.113924276884246</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0858592965363751</v>
+        <v>0.08668627413321978</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.147800556026136</v>
+        <v>0.1480971571682055</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>53508</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40508</v>
+        <v>40953</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66334</v>
+        <v>68300</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2473502598931511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1872541702100442</v>
+        <v>0.1893105294723395</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3066409900622183</v>
+        <v>0.3157265778762717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -4445,19 +4445,19 @@
         <v>22679</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15825</v>
+        <v>16054</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30577</v>
+        <v>30865</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3482781704415798</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2430160361228618</v>
+        <v>0.2465322807062266</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4695572272300053</v>
+        <v>0.4739888858424603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -4466,19 +4466,19 @@
         <v>76187</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61494</v>
+        <v>61385</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>90608</v>
+        <v>92597</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2707020908063164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2184955048730656</v>
+        <v>0.2181090379500496</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3219396257193288</v>
+        <v>0.329008837780766</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>44000</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34428</v>
+        <v>32415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57137</v>
+        <v>57536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2033991920294644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1591492107947101</v>
+        <v>0.149844046820592</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2641267221919475</v>
+        <v>0.2659707622596407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -4516,19 +4516,19 @@
         <v>15884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10282</v>
+        <v>9385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23312</v>
+        <v>24201</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.243933478987841</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1578963568975842</v>
+        <v>0.1441271777074963</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3579949998250992</v>
+        <v>0.3716441670929313</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -4537,19 +4537,19 @@
         <v>59885</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45888</v>
+        <v>47580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74767</v>
+        <v>76203</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2127776663295297</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1630451838099092</v>
+        <v>0.1690575046990513</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2656570285123817</v>
+        <v>0.2707565559384197</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>67760</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>55002</v>
+        <v>55110</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>82757</v>
+        <v>83827</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3132323096661472</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2542548581024284</v>
+        <v>0.2547539359762104</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3825574804828528</v>
+        <v>0.3875068866641735</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -4587,19 +4587,19 @@
         <v>12024</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6614</v>
+        <v>6724</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19798</v>
+        <v>19850</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1846424580089596</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1015724898015972</v>
+        <v>0.1032602306786713</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.304033819515445</v>
+        <v>0.3048350031941002</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>76</v>
@@ -4608,19 +4608,19 @@
         <v>79784</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>64553</v>
+        <v>65289</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>95968</v>
+        <v>94466</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2834802969995736</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.229365692708079</v>
+        <v>0.2319809087374292</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3409870327696508</v>
+        <v>0.3356495641784928</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>37396</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26890</v>
+        <v>25913</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49599</v>
+        <v>49042</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1728680447548704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1243017787142663</v>
+        <v>0.1197883387962681</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2292802286799765</v>
+        <v>0.2267045801831136</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -4658,19 +4658,19 @@
         <v>8991</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4560</v>
+        <v>4405</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15680</v>
+        <v>15536</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1380762595615138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0700199049799822</v>
+        <v>0.06764647846109215</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.240788623020408</v>
+        <v>0.2385831016579774</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -4679,19 +4679,19 @@
         <v>46387</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35645</v>
+        <v>35158</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60752</v>
+        <v>60051</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1648182210679668</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1266513810557374</v>
+        <v>0.1249217169788836</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2158594327256973</v>
+        <v>0.2133685614856585</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>13661</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7251</v>
+        <v>6915</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23116</v>
+        <v>23159</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06315019365636701</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03351779546362541</v>
+        <v>0.03196567550264592</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1068581696820794</v>
+        <v>0.1070546770647751</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4729,19 +4729,19 @@
         <v>5540</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1937</v>
+        <v>2067</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10953</v>
+        <v>12275</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08506963300010581</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02974356772900918</v>
+        <v>0.03174311374823736</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1682056632649861</v>
+        <v>0.1885083375274585</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -4750,19 +4750,19 @@
         <v>19201</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11333</v>
+        <v>10841</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30871</v>
+        <v>28892</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06822172479661352</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04026827121388588</v>
+        <v>0.03851950623946009</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1096889150338767</v>
+        <v>0.1026553395196475</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>126551</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108709</v>
+        <v>108174</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>148472</v>
+        <v>147239</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2594844854301884</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2229007753512939</v>
+        <v>0.2218048549537355</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3044315417792275</v>
+        <v>0.3019047923390338</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -4875,19 +4875,19 @@
         <v>61040</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48516</v>
+        <v>47314</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77378</v>
+        <v>75327</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1672608197362971</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1329414898824888</v>
+        <v>0.1296490443339257</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.21202920771811</v>
+        <v>0.2064086786165391</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>183</v>
@@ -4896,19 +4896,19 @@
         <v>187591</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166337</v>
+        <v>162267</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>216685</v>
+        <v>213222</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2200116005309644</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1950847269162457</v>
+        <v>0.1903104650660183</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2541338947949007</v>
+        <v>0.2500726777963032</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>91272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>75385</v>
+        <v>74500</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109717</v>
+        <v>109220</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1871467158485011</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1545711660976488</v>
+        <v>0.1527576842181642</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2249670264533781</v>
+        <v>0.2239493224207734</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>69</v>
@@ -4946,19 +4946,19 @@
         <v>68493</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>53128</v>
+        <v>55492</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>83470</v>
+        <v>83459</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1876818257041649</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1455781351564818</v>
+        <v>0.152058008119745</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.228720951339657</v>
+        <v>0.2286919412161823</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>156</v>
@@ -4967,19 +4967,19 @@
         <v>159764</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>137466</v>
+        <v>138426</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>182885</v>
+        <v>182692</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.187375749574087</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1612235693175875</v>
+        <v>0.1623496738245206</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2144920291434853</v>
+        <v>0.2142653565840154</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>134774</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>115710</v>
+        <v>115106</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>154727</v>
+        <v>156024</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2763454819507563</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2372562632820576</v>
+        <v>0.2360180079510259</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3172571645452213</v>
+        <v>0.3199170622264127</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>105</v>
@@ -5017,19 +5017,19 @@
         <v>107099</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>89177</v>
+        <v>92085</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>124679</v>
+        <v>126006</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2934690514696024</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2443602550231976</v>
+        <v>0.2523264779343724</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3416411554594361</v>
+        <v>0.3452762515999404</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>232</v>
@@ -5038,19 +5038,19 @@
         <v>241873</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>212649</v>
+        <v>215813</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>267277</v>
+        <v>269908</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2836745843410773</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2494000722408488</v>
+        <v>0.2531112754474949</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3134690006520022</v>
+        <v>0.316554821936391</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>85733</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68513</v>
+        <v>70085</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104926</v>
+        <v>102755</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1757896017532924</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1404808167613538</v>
+        <v>0.1437045271601699</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2151445592321202</v>
+        <v>0.2106920524467817</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -5088,19 +5088,19 @@
         <v>70106</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54778</v>
+        <v>55483</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>85927</v>
+        <v>85879</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1921026498698686</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.150100360409512</v>
+        <v>0.1520328405634752</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2354527831073656</v>
+        <v>0.2353224782061181</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>151</v>
@@ -5109,19 +5109,19 @@
         <v>155839</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>134406</v>
+        <v>132832</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>182187</v>
+        <v>178461</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1827717908239201</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.15763447190881</v>
+        <v>0.1557892725633303</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2136729756454764</v>
+        <v>0.2093035265039665</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>49372</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37433</v>
+        <v>37318</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64530</v>
+        <v>64770</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1012337150172618</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07675486226745289</v>
+        <v>0.07651828629727195</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.132315488453618</v>
+        <v>0.1328069078452816</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -5159,19 +5159,19 @@
         <v>58203</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43663</v>
+        <v>44039</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>74028</v>
+        <v>75511</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1594856532200671</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.119644399678625</v>
+        <v>0.1206747071613849</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2028481638097958</v>
+        <v>0.2069112734914708</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>101</v>
@@ -5180,19 +5180,19 @@
         <v>107575</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>88276</v>
+        <v>87906</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>127363</v>
+        <v>127360</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1261662747299511</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.103532002570569</v>
+        <v>0.1030985276758473</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.149374081168114</v>
+        <v>0.1493708257529934</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>66554</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>53513</v>
+        <v>52529</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>79190</v>
+        <v>80881</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3448003094821206</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2772373558460454</v>
+        <v>0.2721406704791444</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4102622783148942</v>
+        <v>0.4190240354260509</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -5305,19 +5305,19 @@
         <v>62550</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>49668</v>
+        <v>50465</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>76008</v>
+        <v>76899</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3165205242362333</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2513331118773748</v>
+        <v>0.2553634376131111</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3846168704521629</v>
+        <v>0.3891283415057663</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>121</v>
@@ -5326,19 +5326,19 @@
         <v>129104</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>110909</v>
+        <v>111121</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>147291</v>
+        <v>150033</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3304940102361136</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2839168689647542</v>
+        <v>0.2844598008207672</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3770502242355725</v>
+        <v>0.3840698978061343</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>34192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24911</v>
+        <v>24649</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46974</v>
+        <v>45609</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1771407242370937</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1290558428170143</v>
+        <v>0.1276979355366128</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2433598266268411</v>
+        <v>0.2362890773262451</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>46</v>
@@ -5376,19 +5376,19 @@
         <v>46283</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>35365</v>
+        <v>34943</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58888</v>
+        <v>58299</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2342023603061953</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1789559132304533</v>
+        <v>0.1768195551973318</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2979873574154585</v>
+        <v>0.2950062789289009</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>78</v>
@@ -5397,19 +5397,19 @@
         <v>80475</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>65357</v>
+        <v>65177</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>97790</v>
+        <v>96922</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.206007309820166</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1673067718050292</v>
+        <v>0.1668478066368544</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2503337142754705</v>
+        <v>0.2481118972888843</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>56027</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44325</v>
+        <v>43449</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>69833</v>
+        <v>70157</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.29026423065499</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2296376871620925</v>
+        <v>0.2250967677375219</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3617895121295311</v>
+        <v>0.3634683086789068</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>48</v>
@@ -5447,19 +5447,19 @@
         <v>49022</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>38270</v>
+        <v>37063</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>63195</v>
+        <v>61448</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.248062483440001</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1936566519465939</v>
+        <v>0.1875493686961796</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3197807953113386</v>
+        <v>0.3109417184453756</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>98</v>
@@ -5468,19 +5468,19 @@
         <v>105049</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>88369</v>
+        <v>88999</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>123509</v>
+        <v>125477</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2689150294813433</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2262146839753809</v>
+        <v>0.2278296300228508</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3161711263751026</v>
+        <v>0.3212079825969636</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>25814</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17672</v>
+        <v>17501</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>36049</v>
+        <v>36833</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1337334797488208</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09155321178392287</v>
+        <v>0.09066987889351175</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1867604412172523</v>
+        <v>0.1908242886287727</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -5518,19 +5518,19 @@
         <v>24310</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16603</v>
+        <v>16219</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35681</v>
+        <v>34545</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1230134340435354</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08401287810979888</v>
+        <v>0.08207286603684022</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1805567270564269</v>
+        <v>0.1748073193930682</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>49</v>
@@ -5539,19 +5539,19 @@
         <v>50123</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>37212</v>
+        <v>37851</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63710</v>
+        <v>64864</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.128310376975684</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09525807229589335</v>
+        <v>0.09689595333154429</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1630911130922201</v>
+        <v>0.166044532929736</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>10435</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4701</v>
+        <v>5005</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18990</v>
+        <v>20422</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05406125587697477</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02435366683830137</v>
+        <v>0.02592745262504661</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09838150026028812</v>
+        <v>0.1058009120260429</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -5589,19 +5589,19 @@
         <v>15454</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8346</v>
+        <v>8739</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24519</v>
+        <v>24985</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07820119797403501</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04223458589566163</v>
+        <v>0.0442207907446305</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1240709443969489</v>
+        <v>0.1264281851462833</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -5610,19 +5610,19 @@
         <v>25889</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>17278</v>
+        <v>17392</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>37519</v>
+        <v>39140</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06627327348669299</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04422934320637402</v>
+        <v>0.04452053340776651</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09604477297271222</v>
+        <v>0.1001948961850349</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>357189</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>322233</v>
+        <v>326669</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>390320</v>
+        <v>391788</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2521917856681907</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2275115083566052</v>
+        <v>0.2306436437846711</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2755843801384753</v>
+        <v>0.2766205311437702</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>227</v>
@@ -5735,19 +5735,19 @@
         <v>229876</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>203704</v>
+        <v>204685</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>255739</v>
+        <v>259471</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.222957527360869</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1975732666500594</v>
+        <v>0.1985247078599731</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2480423890665805</v>
+        <v>0.2516623208425042</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>564</v>
@@ -5756,19 +5756,19 @@
         <v>587064</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>542566</v>
+        <v>545263</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>628297</v>
+        <v>632312</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2398759470660134</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2216941392928305</v>
+        <v>0.2227957442240431</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2567236665816573</v>
+        <v>0.2583645247589895</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>271512</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>238461</v>
+        <v>240354</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>303970</v>
+        <v>299573</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1916998417044742</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1683648667115078</v>
+        <v>0.1697013546258677</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2146167217130201</v>
+        <v>0.2115125195104467</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>202</v>
@@ -5806,19 +5806,19 @@
         <v>204145</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>179549</v>
+        <v>178984</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>230619</v>
+        <v>229042</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1980007513972338</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1741453449755343</v>
+        <v>0.1735974990663666</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2236785205563348</v>
+        <v>0.2221487439928573</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>453</v>
@@ -5827,19 +5827,19 @@
         <v>475656</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>431218</v>
+        <v>434846</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>515302</v>
+        <v>513842</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1943542954623616</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1761969373684398</v>
+        <v>0.1776792200996137</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2105539458221902</v>
+        <v>0.2099573044014416</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>404658</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>369607</v>
+        <v>369481</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>439581</v>
+        <v>440828</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2857074919349905</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2609599996603074</v>
+        <v>0.2608705096464542</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3103646514609947</v>
+        <v>0.3112453928019345</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>274</v>
@@ -5877,19 +5877,19 @@
         <v>283248</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>257543</v>
+        <v>253181</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>317827</v>
+        <v>311156</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.274723831938724</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2497918538195383</v>
+        <v>0.245561166946832</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.308262059000302</v>
+        <v>0.3017915544696124</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>648</v>
@@ -5898,19 +5898,19 @@
         <v>687906</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>644225</v>
+        <v>642972</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>739789</v>
+        <v>736499</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2810802842817924</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2632321285250421</v>
+        <v>0.2627199397160654</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3022799768893205</v>
+        <v>0.3009355843265305</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>237949</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>208553</v>
+        <v>208412</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>266276</v>
+        <v>265474</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1680033765619127</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1472478819131961</v>
+        <v>0.1471484184092809</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1880034383414646</v>
+        <v>0.187436811765973</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>178</v>
@@ -5948,19 +5948,19 @@
         <v>180293</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>157712</v>
+        <v>155789</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>208142</v>
+        <v>206058</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1748669367094797</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1529656948860413</v>
+        <v>0.1511007411311121</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2018776017740506</v>
+        <v>0.199856840897847</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>404</v>
@@ -5969,19 +5969,19 @@
         <v>418242</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>380637</v>
+        <v>381355</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>456396</v>
+        <v>455221</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1708948642858411</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1555292780575758</v>
+        <v>0.1558227093536952</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1864846752642969</v>
+        <v>0.1860044774278516</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>145029</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>121642</v>
+        <v>122676</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>169284</v>
+        <v>172111</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1023975041304319</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08588499092513473</v>
+        <v>0.08661503810342275</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1195222941607013</v>
+        <v>0.1215183508517203</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>126</v>
@@ -6019,19 +6019,19 @@
         <v>133468</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>112489</v>
+        <v>112041</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>158431</v>
+        <v>157542</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1294509525936935</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1091032652051844</v>
+        <v>0.108668825581939</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1536628917236416</v>
+        <v>0.1528010503869986</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>255</v>
@@ -6040,19 +6040,19 @@
         <v>278497</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>245710</v>
+        <v>247778</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>313163</v>
+        <v>310843</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1137946089039915</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1003976257247559</v>
+        <v>0.101242685801663</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1279592835106541</v>
+        <v>0.1270113584603111</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>29423</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18953</v>
+        <v>19976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41015</v>
+        <v>42875</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.299001911109201</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1926057610263313</v>
+        <v>0.2029946701807699</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4167969342430085</v>
+        <v>0.4357027294521327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -6406,19 +6406,19 @@
         <v>28478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20722</v>
+        <v>20844</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37260</v>
+        <v>36686</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3294597417136469</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2397310945801509</v>
+        <v>0.2411438208963172</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4310594904792609</v>
+        <v>0.4244203004454676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -6427,19 +6427,19 @@
         <v>57901</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44641</v>
+        <v>43871</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72123</v>
+        <v>71679</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3132448831063599</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2415101954628029</v>
+        <v>0.2373426047398242</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3901849996746143</v>
+        <v>0.3877829909314273</v>
       </c>
     </row>
     <row r="5">
@@ -6456,19 +6456,19 @@
         <v>20148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12630</v>
+        <v>12361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29784</v>
+        <v>30241</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.204748017344349</v>
+        <v>0.2047480173443491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1283438616838976</v>
+        <v>0.1256156968777129</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3026700116268982</v>
+        <v>0.3073117327288595</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -6477,19 +6477,19 @@
         <v>11175</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6275</v>
+        <v>5744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18356</v>
+        <v>17414</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1292828898825884</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07259592922353468</v>
+        <v>0.06645216214395555</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2123651452617301</v>
+        <v>0.2014614498619667</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -6498,19 +6498,19 @@
         <v>31323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22365</v>
+        <v>22217</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43062</v>
+        <v>42466</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1694583175899947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1209946760353266</v>
+        <v>0.1201944758836454</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2329671591626272</v>
+        <v>0.2297409859619552</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>26458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18745</v>
+        <v>17297</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38716</v>
+        <v>37035</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2688690792200849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1904879251354205</v>
+        <v>0.1757725077446219</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3934349260265811</v>
+        <v>0.3763485130124048</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -6548,19 +6548,19 @@
         <v>19970</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13800</v>
+        <v>13727</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28042</v>
+        <v>27705</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2310292719346563</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1596538820561299</v>
+        <v>0.1588041217184396</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3244139351982338</v>
+        <v>0.3205187447672984</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -6569,19 +6569,19 @@
         <v>46428</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35549</v>
+        <v>35292</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>60668</v>
+        <v>59033</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2511740791216348</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1923196389259861</v>
+        <v>0.1909288415913696</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3282139978941916</v>
+        <v>0.3193700596420259</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>9606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4805</v>
+        <v>4961</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17270</v>
+        <v>18649</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09761681284913806</v>
+        <v>0.09761681284913808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04882634439090994</v>
+        <v>0.05041342676616718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1754975969433281</v>
+        <v>0.189509017592279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -6619,19 +6619,19 @@
         <v>17090</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10745</v>
+        <v>11558</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24256</v>
+        <v>25767</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1977117087635557</v>
+        <v>0.1977117087635556</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1243135033439988</v>
+        <v>0.1337154003815501</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2806134832983279</v>
+        <v>0.2981035525311084</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -6640,19 +6640,19 @@
         <v>26696</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18790</v>
+        <v>17918</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37405</v>
+        <v>37048</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1444241123604657</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1016551619426656</v>
+        <v>0.09693767391257882</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2023602656508447</v>
+        <v>0.2004321066214818</v>
       </c>
     </row>
     <row r="8">
@@ -6669,19 +6669,19 @@
         <v>12769</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6363</v>
+        <v>6858</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21405</v>
+        <v>22891</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1297641794772272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06466388033002934</v>
+        <v>0.06968970660850739</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2175216492417721</v>
+        <v>0.2326153205540845</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -6690,19 +6690,19 @@
         <v>9726</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5495</v>
+        <v>5069</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16343</v>
+        <v>16167</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1125163877055526</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06356715219650583</v>
+        <v>0.0586375312656874</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.189076432642878</v>
+        <v>0.1870315427997088</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -6711,19 +6711,19 @@
         <v>22495</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14226</v>
+        <v>14603</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34084</v>
+        <v>33942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.121698607821545</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07696385637601982</v>
+        <v>0.0790034963680411</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1843957170081267</v>
+        <v>0.1836253945470685</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>24151</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15177</v>
+        <v>16076</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33487</v>
+        <v>32869</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3282873395192955</v>
+        <v>0.3282873395192956</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2063042834100858</v>
+        <v>0.2185313789629327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4551927615862326</v>
+        <v>0.4467960853924893</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -6836,19 +6836,19 @@
         <v>24468</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17677</v>
+        <v>17067</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32464</v>
+        <v>31792</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3660589435997522</v>
+        <v>0.3660589435997521</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2644657828268028</v>
+        <v>0.2553423474223331</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4856892082100301</v>
+        <v>0.4756324965793007</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -6857,19 +6857,19 @@
         <v>48619</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38137</v>
+        <v>37671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60667</v>
+        <v>60653</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3462686615239464</v>
+        <v>0.3462686615239463</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2716197025417487</v>
+        <v>0.2682955795478338</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4320807552778179</v>
+        <v>0.4319821642235451</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>12251</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6035</v>
+        <v>6255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20308</v>
+        <v>19802</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1665338634353237</v>
+        <v>0.1665338634353238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08202988927714203</v>
+        <v>0.08502203688054152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2760556464773404</v>
+        <v>0.2691793982865868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -6907,19 +6907,19 @@
         <v>10366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5887</v>
+        <v>5824</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16958</v>
+        <v>16358</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1550890468321409</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08808175291576011</v>
+        <v>0.08713183371118484</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2537134258379881</v>
+        <v>0.244735944672823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -6928,19 +6928,19 @@
         <v>22618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15277</v>
+        <v>15092</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32337</v>
+        <v>32210</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1610855130770056</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.108806060464765</v>
+        <v>0.1074898590559363</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2303055266428957</v>
+        <v>0.2294012830366115</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>21849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14614</v>
+        <v>14364</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31487</v>
+        <v>30873</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2969960876879255</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1986471825896646</v>
+        <v>0.195253483759822</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4280090505183077</v>
+        <v>0.4196689097720599</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -6978,19 +6978,19 @@
         <v>20404</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14063</v>
+        <v>14394</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27011</v>
+        <v>27931</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3052652988737166</v>
+        <v>0.3052652988737164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2103933079154172</v>
+        <v>0.2153529640709102</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4041048538761356</v>
+        <v>0.4178756196368089</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -6999,19 +6999,19 @@
         <v>42253</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31655</v>
+        <v>32297</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53174</v>
+        <v>53605</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3009326784861199</v>
+        <v>0.3009326784861198</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2254533397213001</v>
+        <v>0.2300261940233116</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3787127668279809</v>
+        <v>0.3817826866632061</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>6257</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1406</v>
+        <v>2433</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12498</v>
+        <v>13892</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08504947355631269</v>
+        <v>0.08504947355631273</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01910548044975308</v>
+        <v>0.03306566676314109</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1698919387549167</v>
+        <v>0.1888338895108974</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -7049,19 +7049,19 @@
         <v>4172</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1718</v>
+        <v>1628</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8914</v>
+        <v>8822</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06241334032970128</v>
+        <v>0.06241334032970124</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02570194195147807</v>
+        <v>0.02435336239846882</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.133355784351956</v>
+        <v>0.1319902125059385</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -7070,19 +7070,19 @@
         <v>10429</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5350</v>
+        <v>5489</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17968</v>
+        <v>18019</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0742734525109562</v>
+        <v>0.07427345251095618</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03810542137829873</v>
+        <v>0.03909266795617691</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1279732814677527</v>
+        <v>0.1283347346879624</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>9058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3802</v>
+        <v>3444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17813</v>
+        <v>18094</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1231332358011426</v>
+        <v>0.1231332358011427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05168452794003427</v>
+        <v>0.04680875119367317</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2421303063592157</v>
+        <v>0.2459586683149562</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -7120,19 +7120,19 @@
         <v>7431</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4087</v>
+        <v>3745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13397</v>
+        <v>13297</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1111733703646893</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06114914823988489</v>
+        <v>0.0560352934671931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2004345169505818</v>
+        <v>0.1989293848850624</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -7141,19 +7141,19 @@
         <v>16489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9667</v>
+        <v>9758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25955</v>
+        <v>26171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1174396944019721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06885247103105836</v>
+        <v>0.06949467768493685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1848560525583256</v>
+        <v>0.186394204778691</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>18145</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10753</v>
+        <v>11000</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27087</v>
+        <v>27690</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2617677340650174</v>
+        <v>0.2617677340650173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1551298735313604</v>
+        <v>0.158695727835937</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.390768280808911</v>
+        <v>0.3994614191742713</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -7266,19 +7266,19 @@
         <v>8916</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4296</v>
+        <v>4225</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15982</v>
+        <v>16657</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.319205139199782</v>
+        <v>0.3192051391997821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1538044164921124</v>
+        <v>0.1512563983473453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5721863153067523</v>
+        <v>0.5963630742483786</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -7287,19 +7287,19 @@
         <v>27061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18039</v>
+        <v>18018</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38935</v>
+        <v>38524</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2782645349467257</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.185490129569043</v>
+        <v>0.1852805302833183</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4003652584601128</v>
+        <v>0.3961337136648002</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>16289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9018</v>
+        <v>8640</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25811</v>
+        <v>25065</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2349880487601317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1301014084377144</v>
+        <v>0.124637059072962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3723619764496051</v>
+        <v>0.3616014500782978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -7337,19 +7337,19 @@
         <v>2877</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6775</v>
+        <v>6707</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1030199093971396</v>
+        <v>0.1030199093971397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02559733450952317</v>
+        <v>0.02709149847877274</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2425476019882766</v>
+        <v>0.2401441263889381</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -7358,19 +7358,19 @@
         <v>19166</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11558</v>
+        <v>10819</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29396</v>
+        <v>29329</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1970850113110544</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1188504580925374</v>
+        <v>0.1112484905516559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3022790461986641</v>
+        <v>0.3015836670058119</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>20793</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13297</v>
+        <v>13274</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30550</v>
+        <v>30755</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2999685861878586</v>
+        <v>0.2999685861878585</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1918242581443345</v>
+        <v>0.1914878397136424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4407182197726454</v>
+        <v>0.443686851702455</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -7408,19 +7408,19 @@
         <v>7512</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4011</v>
+        <v>3959</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12210</v>
+        <v>12456</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2689417733634066</v>
+        <v>0.2689417733634067</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1435937074272953</v>
+        <v>0.141749480392282</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4371371421691687</v>
+        <v>0.4459496269568369</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -7429,19 +7429,19 @@
         <v>28305</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>19342</v>
+        <v>18707</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>38018</v>
+        <v>38774</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2910572652123012</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1988873595141708</v>
+        <v>0.1923624580859424</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3909357839124669</v>
+        <v>0.3987060426843727</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>4441</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1152</v>
+        <v>1047</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10468</v>
+        <v>10115</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06406556180344419</v>
+        <v>0.06406556180344418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01662371329232219</v>
+        <v>0.01509974365126291</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1510184025056467</v>
+        <v>0.1459230048443198</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -7479,19 +7479,19 @@
         <v>5610</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2170</v>
+        <v>2246</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10318</v>
+        <v>10312</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2008547584432176</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07770475909530176</v>
+        <v>0.08040247384406453</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3694226745998148</v>
+        <v>0.3692030362156494</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -7500,19 +7500,19 @@
         <v>10051</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5072</v>
+        <v>5374</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17631</v>
+        <v>18737</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1033532722151627</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05215374995216215</v>
+        <v>0.05526393886561704</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1812978201938507</v>
+        <v>0.1926725996228445</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>9650</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4328</v>
+        <v>3709</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22097</v>
+        <v>22088</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.139210069183548</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06244300876765754</v>
+        <v>0.05350561807320387</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3187797081305512</v>
+        <v>0.3186468309895095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -7550,19 +7550,19 @@
         <v>3016</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>764</v>
+        <v>810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6733</v>
+        <v>7044</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.107978419596454</v>
+        <v>0.1079784195964541</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02734233084394708</v>
+        <v>0.0289993822522294</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.241048224801734</v>
+        <v>0.2521946880084133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -7571,19 +7571,19 @@
         <v>12666</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6260</v>
+        <v>6544</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23629</v>
+        <v>25209</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.130239916314756</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06437574473099408</v>
+        <v>0.067286623658931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2429738428058505</v>
+        <v>0.2592174267420008</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>34346</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24821</v>
+        <v>23868</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46722</v>
+        <v>46710</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2566846832319149</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1854942274546564</v>
+        <v>0.1783716299608494</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3491742669840762</v>
+        <v>0.3490806059880053</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -7696,19 +7696,19 @@
         <v>27489</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19667</v>
+        <v>19605</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36473</v>
+        <v>37372</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2365099955145264</v>
+        <v>0.2365099955145265</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1692128610214422</v>
+        <v>0.1686792097031245</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3138069335779434</v>
+        <v>0.3215468620910852</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -7717,19 +7717,19 @@
         <v>61835</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49241</v>
+        <v>49150</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77152</v>
+        <v>76030</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2473066325845372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1969390140303751</v>
+        <v>0.1965745607189449</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3085673123369617</v>
+        <v>0.3040804295106248</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>22597</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13576</v>
+        <v>13782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33264</v>
+        <v>34096</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1688786245298432</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1014624345376423</v>
+        <v>0.1030018997131085</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2485962800817256</v>
+        <v>0.2548165778806752</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>29</v>
@@ -7767,19 +7767,19 @@
         <v>22968</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15721</v>
+        <v>16163</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32340</v>
+        <v>31641</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1976154061073691</v>
+        <v>0.1976154061073692</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.135261366900547</v>
+        <v>0.1390671839530343</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2782543832453406</v>
+        <v>0.272235502372401</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>48</v>
@@ -7788,19 +7788,19 @@
         <v>45565</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33739</v>
+        <v>33328</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>58906</v>
+        <v>59701</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1822366996015278</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1349372264035893</v>
+        <v>0.1332939404820677</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2355923596495118</v>
+        <v>0.2387734595168083</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>40724</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29399</v>
+        <v>28548</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53607</v>
+        <v>53649</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3043465197499065</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2197116389873947</v>
+        <v>0.2133512514167508</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4006249226940453</v>
+        <v>0.4009434909483172</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -7838,19 +7838,19 @@
         <v>41374</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>32671</v>
+        <v>32068</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51142</v>
+        <v>51217</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.355978051036708</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2810949774587979</v>
+        <v>0.2759111521420028</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4400256996891102</v>
+        <v>0.4406655940315385</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>88</v>
@@ -7859,19 +7859,19 @@
         <v>82098</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>67918</v>
+        <v>67768</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>99325</v>
+        <v>97914</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3283470456659512</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2716331115255781</v>
+        <v>0.2710369421624821</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3972456271627566</v>
+        <v>0.3916037411316256</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>28615</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19426</v>
+        <v>19060</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41034</v>
+        <v>41174</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2138478900190705</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1451787497154419</v>
+        <v>0.142441540394869</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3066602817883463</v>
+        <v>0.3077124297279992</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -7909,19 +7909,19 @@
         <v>14015</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8654</v>
+        <v>8877</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20083</v>
+        <v>20890</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1205864029460717</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07445429201118271</v>
+        <v>0.07637542237329203</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1727901128647543</v>
+        <v>0.179736617492568</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -7930,19 +7930,19 @@
         <v>42630</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31676</v>
+        <v>31651</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57005</v>
+        <v>57139</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1704959947395951</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.126687665619078</v>
+        <v>0.1265873921046071</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2279881940768901</v>
+        <v>0.2285236743961299</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>7526</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3088</v>
+        <v>3083</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15323</v>
+        <v>16129</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0562422824692651</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02307624020723112</v>
+        <v>0.02303951646877977</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.11451648083427</v>
+        <v>0.1205349208349556</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -7980,19 +7980,19 @@
         <v>10380</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6027</v>
+        <v>5914</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16854</v>
+        <v>17124</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08931014439532468</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05185221776419652</v>
+        <v>0.05088634467118928</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1450077548592147</v>
+        <v>0.147336982210058</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -8001,19 +8001,19 @@
         <v>17906</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10961</v>
+        <v>10749</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27861</v>
+        <v>27640</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07161362740838877</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04383941873786049</v>
+        <v>0.04298980136357344</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1114273923588998</v>
+        <v>0.1105447098601827</v>
       </c>
     </row>
     <row r="27">
@@ -8105,19 +8105,19 @@
         <v>33967</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22768</v>
+        <v>23339</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46939</v>
+        <v>47225</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.3603411706549738</v>
+        <v>0.3603411706549739</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.24153259907205</v>
+        <v>0.2475968719445055</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4979557680225414</v>
+        <v>0.5009896519433994</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -8126,19 +8126,19 @@
         <v>29480</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22811</v>
+        <v>22299</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>38299</v>
+        <v>38136</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.343402668344133</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2657177677825676</v>
+        <v>0.2597525382534666</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4461292510947106</v>
+        <v>0.4442366233869697</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>61</v>
@@ -8147,19 +8147,19 @@
         <v>63447</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>51041</v>
+        <v>48628</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>79533</v>
+        <v>78647</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3522676886719144</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2833850484707428</v>
+        <v>0.2699895126687004</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4415775469454784</v>
+        <v>0.4366607368506802</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>21479</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12269</v>
+        <v>12056</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37444</v>
+        <v>35125</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.227861881716155</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1301568474603031</v>
+        <v>0.1278983322823864</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3972272714827888</v>
+        <v>0.3726280880882415</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -8197,19 +8197,19 @@
         <v>12890</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8256</v>
+        <v>8184</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19814</v>
+        <v>19763</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.150147217627093</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09616992928563038</v>
+        <v>0.09533403188649477</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2308116787978775</v>
+        <v>0.2302148815116234</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>31</v>
@@ -8218,19 +8218,19 @@
         <v>34369</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24175</v>
+        <v>23843</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50293</v>
+        <v>49846</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1908203576883192</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1342249252615352</v>
+        <v>0.1323767218865468</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2792355819581085</v>
+        <v>0.2767490215168266</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>22331</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14348</v>
+        <v>14047</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34941</v>
+        <v>32826</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2368932429378672</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1522133358537015</v>
+        <v>0.1490185842725477</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3706752620216104</v>
+        <v>0.3482357849662182</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>35</v>
@@ -8268,19 +8268,19 @@
         <v>26978</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19730</v>
+        <v>19895</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35492</v>
+        <v>35558</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3142585926764094</v>
+        <v>0.3142585926764095</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2298233391101643</v>
+        <v>0.2317462593067854</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4134340241668462</v>
+        <v>0.4142051184330891</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>54</v>
@@ -8289,19 +8289,19 @@
         <v>49309</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>37481</v>
+        <v>37634</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>61741</v>
+        <v>64039</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2737682715422239</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2080979129832322</v>
+        <v>0.2089471182291608</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3427935160406238</v>
+        <v>0.3555542191049319</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>13053</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6192</v>
+        <v>6427</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22840</v>
+        <v>23135</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1384718626102811</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06568358508252145</v>
+        <v>0.0681764394936793</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.242302063387518</v>
+        <v>0.2454301741004159</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -8339,19 +8339,19 @@
         <v>13624</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8243</v>
+        <v>8119</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>21311</v>
+        <v>21171</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1587063295604419</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09602086122918355</v>
+        <v>0.09457595659099592</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.248241119830795</v>
+        <v>0.2466078332946759</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -8360,19 +8360,19 @@
         <v>26677</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18308</v>
+        <v>18440</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>39431</v>
+        <v>39097</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1481163164918018</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1016466776092448</v>
+        <v>0.1023806324129852</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2189284845776574</v>
+        <v>0.2170723239782676</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>3434</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1100</v>
+        <v>574</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11032</v>
+        <v>10244</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03643184208072281</v>
+        <v>0.03643184208072282</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0116661920482805</v>
+        <v>0.006090104243377499</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1170346715571175</v>
+        <v>0.1086755649480531</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -8410,19 +8410,19 @@
         <v>2875</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6798</v>
+        <v>6766</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03348519179192264</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008536886438756519</v>
+        <v>0.008453199039220769</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07918615213946439</v>
+        <v>0.07881379273914423</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -8431,19 +8431,19 @@
         <v>6309</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2685</v>
+        <v>2442</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>13979</v>
+        <v>13013</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03502736560574075</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0149095469359158</v>
+        <v>0.01355781711046006</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0776157256692289</v>
+        <v>0.07225102986378194</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>140033</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>115583</v>
+        <v>117115</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>164354</v>
+        <v>165465</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2983480887494426</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2462569338271268</v>
+        <v>0.249520694435343</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3501668892205316</v>
+        <v>0.3525331098694864</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>140</v>
@@ -8556,19 +8556,19 @@
         <v>118830</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>103010</v>
+        <v>102816</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>135997</v>
+        <v>138472</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.310032005807862</v>
+        <v>0.3100320058078619</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2687555329801884</v>
+        <v>0.2682514022485515</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3548192854012784</v>
+        <v>0.3612789559816549</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>250</v>
@@ -8577,19 +8577,19 @@
         <v>258863</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>230249</v>
+        <v>230013</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>289876</v>
+        <v>288137</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.303600292110933</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2700408517220018</v>
+        <v>0.2697645045896703</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3399733401074401</v>
+        <v>0.33793361228323</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>92765</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>74779</v>
+        <v>75045</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>115493</v>
+        <v>114893</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1976407377984469</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.159320619129498</v>
+        <v>0.1598882377480214</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.246063925672437</v>
+        <v>0.2447860682501763</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>80</v>
@@ -8627,19 +8627,19 @@
         <v>60277</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>49444</v>
+        <v>48539</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>74075</v>
+        <v>76580</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1572635825912251</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1289997434112179</v>
+        <v>0.1266394636534473</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1932634685771155</v>
+        <v>0.1997986778649561</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>153</v>
@@ -8648,19 +8648,19 @@
         <v>153041</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>131465</v>
+        <v>129571</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>179820</v>
+        <v>178222</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1794902297756283</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1541853114990401</v>
+        <v>0.1519643131283541</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2108971020756447</v>
+        <v>0.2090224099783225</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>132154</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>109721</v>
+        <v>111009</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>155975</v>
+        <v>155373</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2815627947169052</v>
+        <v>0.2815627947169053</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.233767016401036</v>
+        <v>0.2365109279326313</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3323142662894162</v>
+        <v>0.3310325365888264</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>156</v>
@@ -8698,19 +8698,19 @@
         <v>116238</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>99549</v>
+        <v>99691</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>131755</v>
+        <v>131859</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.303269040280432</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2597262477179594</v>
+        <v>0.2600968952966043</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3437524896447572</v>
+        <v>0.3440250774899674</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>270</v>
@@ -8719,19 +8719,19 @@
         <v>248392</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>222350</v>
+        <v>222735</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>273643</v>
+        <v>283204</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2913202771899547</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2607774610072938</v>
+        <v>0.2612288959810453</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3209349069479598</v>
+        <v>0.3321482809465852</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>61971</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>47421</v>
+        <v>47876</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>80916</v>
+        <v>79590</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1320329213735507</v>
+        <v>0.1320329213735508</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1010333060344692</v>
+        <v>0.1020027016288257</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1723968173815674</v>
+        <v>0.1695717904140526</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>71</v>
@@ -8769,19 +8769,19 @@
         <v>54511</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>42843</v>
+        <v>41874</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>66525</v>
+        <v>66533</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1422221964322682</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1117781543202876</v>
+        <v>0.109251044800375</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1735649314352824</v>
+        <v>0.1735871528779547</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>125</v>
@@ -8790,19 +8790,19 @@
         <v>116482</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>96778</v>
+        <v>97969</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>137683</v>
+        <v>137341</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1366132469995344</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1135037093098414</v>
+        <v>0.1148997857104865</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1614780078001607</v>
+        <v>0.1610761114122731</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>42437</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>28206</v>
+        <v>29399</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>61433</v>
+        <v>60282</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09041545736165443</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06009441059325222</v>
+        <v>0.06263671015081348</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1308871360682302</v>
+        <v>0.128433793064972</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>42</v>
@@ -8840,19 +8840,19 @@
         <v>33427</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>25083</v>
+        <v>24952</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>44292</v>
+        <v>45093</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08721317488821267</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06544176014077056</v>
+        <v>0.0651005502451448</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1155604093102492</v>
+        <v>0.1176486315116473</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>72</v>
@@ -8861,19 +8861,19 @@
         <v>75865</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>59589</v>
+        <v>58699</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>97239</v>
+        <v>95711</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08897595392394964</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06988739491866965</v>
+        <v>0.06884395973154808</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1140441024380574</v>
+        <v>0.1122519480522824</v>
       </c>
     </row>
     <row r="39">
